--- a/Excel Interactive Dashboard.xlsx
+++ b/Excel Interactive Dashboard.xlsx
@@ -275,7 +275,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="###,&quot;k&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="###,\k"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="###,&quot;k&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="###,\k"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -578,7 +602,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Dashboard.xlsx]Profit by country and cookie!PivotTable1</c:name>
+    <c:name>[Excel Interactive Dashboard.xlsx]Profit by country and cookie!PivotTable1</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -593,7 +617,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Profit By Market And Cookie Type</a:t>
+              <a:t>Country</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Profit </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>And Cookie Type</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1127,12 +1159,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="80804096"/>
-        <c:axId val="80871424"/>
+        <c:axId val="95277824"/>
+        <c:axId val="95279360"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="80804096"/>
+        <c:axId val="95277824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,7 +1173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80871424"/>
+        <c:crossAx val="95279360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1149,7 +1181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80871424"/>
+        <c:axId val="95279360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,7 +1192,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80804096"/>
+        <c:crossAx val="95277824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1206,7 +1238,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Dashboard.xlsx]Units Sold Each Month!PivotTable1</c:name>
+    <c:name>[Excel Interactive Dashboard.xlsx]Units Sold Each Month!PivotTable1</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -1384,11 +1416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80912768"/>
-        <c:axId val="80914304"/>
+        <c:axId val="95312512"/>
+        <c:axId val="95326592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80912768"/>
+        <c:axId val="95312512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,7 +1429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80914304"/>
+        <c:crossAx val="95326592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1405,7 +1437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80914304"/>
+        <c:axId val="95326592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,7 +1448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80912768"/>
+        <c:crossAx val="95312512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1456,7 +1488,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Dashboard.xlsx]Product wise unit sold!PivotTable2</c:name>
+    <c:name>[Excel Interactive Dashboard.xlsx]Product wise unit sold!PivotTable2</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -1749,7 +1781,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Dashboard.xlsx]Profit By Month!PivotTable1</c:name>
+    <c:name>[Excel Interactive Dashboard.xlsx]Profit By Month!PivotTable1</c:name>
     <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
@@ -1764,8 +1796,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Profit By Month</a:t>
+              <a:t>Monthly</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Profit</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1916,11 +1953,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85235200"/>
-        <c:axId val="85236736"/>
+        <c:axId val="63004672"/>
+        <c:axId val="63006208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85235200"/>
+        <c:axId val="63004672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1929,7 +1966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85236736"/>
+        <c:crossAx val="63006208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1937,7 +1974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85236736"/>
+        <c:axId val="63006208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1948,7 +1985,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85235200"/>
+        <c:crossAx val="63004672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1987,7 +2024,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Dashboard.xlsx]Units Sold Each Month!PivotTable1</c:name>
+    <c:name>[Excel Interactive Dashboard.xlsx]Units Sold Each Month!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2146,11 +2183,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85583360"/>
-        <c:axId val="85584896"/>
+        <c:axId val="63069568"/>
+        <c:axId val="63095936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85583360"/>
+        <c:axId val="63069568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,7 +2196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85584896"/>
+        <c:crossAx val="63095936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2167,7 +2204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85584896"/>
+        <c:axId val="63095936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,7 +2215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85583360"/>
+        <c:crossAx val="63069568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2218,7 +2255,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Dashboard.xlsx]Profit By Month!PivotTable1</c:name>
+    <c:name>[Excel Interactive Dashboard.xlsx]Profit By Month!PivotTable1</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -2232,9 +2269,14 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Profit By Month</a:t>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Monthly Profit</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2373,11 +2415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85912960"/>
-        <c:axId val="85935232"/>
+        <c:axId val="63166336"/>
+        <c:axId val="63167872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85912960"/>
+        <c:axId val="63166336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2386,7 +2428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85935232"/>
+        <c:crossAx val="63167872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2394,7 +2436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85935232"/>
+        <c:axId val="63167872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,7 +2447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85912960"/>
+        <c:crossAx val="63166336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2444,7 +2486,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Dashboard.xlsx]Profit by country and cookie!PivotTable1</c:name>
+    <c:name>[Excel Interactive Dashboard.xlsx]Profit by country and cookie!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2458,9 +2500,14 @@
               <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Profit by Market and cookie type</a:t>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Country Profit And Cookie Type</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2914,12 +2961,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="86099072"/>
-        <c:axId val="86100608"/>
+        <c:axId val="63339904"/>
+        <c:axId val="63349888"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="86099072"/>
+        <c:axId val="63339904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2928,7 +2975,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86100608"/>
+        <c:crossAx val="63349888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2936,7 +2983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86100608"/>
+        <c:axId val="63349888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2947,7 +2994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86099072"/>
+        <c:crossAx val="63339904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2993,7 +3040,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Dashboard.xlsx]Product wise unit sold!PivotTable2</c:name>
+    <c:name>[Excel Interactive Dashboard.xlsx]Product wise unit sold!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -3018,6 +3065,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3029,6 +3077,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -3164,6 +3213,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10841,7 +10891,7 @@
     <dataField name="Sum of Units Sold" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="14">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="12">
@@ -11004,7 +11054,7 @@
     <dataField name="Sum of Profit" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="13">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -11151,7 +11201,7 @@
     <dataField name="Sum of Profit" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="12">
+    <format dxfId="20">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -11379,7 +11429,7 @@
     <dataField name="Sum of Units Sold" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="11">
+    <format dxfId="19">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -11487,7 +11537,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:I701" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:I701" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="B1:I701">
     <filterColumn colId="7">
       <filters>
@@ -11496,14 +11546,14 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Country" dataDxfId="7"/>
-    <tableColumn id="2" name="Product" dataDxfId="6"/>
-    <tableColumn id="3" name="Units Sold" dataDxfId="5"/>
-    <tableColumn id="4" name="Revenue" dataDxfId="4"/>
-    <tableColumn id="5" name="Cost" dataDxfId="3"/>
-    <tableColumn id="6" name="Profit" dataDxfId="2"/>
-    <tableColumn id="7" name="Date" dataDxfId="1"/>
-    <tableColumn id="8" name="Month" dataDxfId="0"/>
+    <tableColumn id="1" name="Country" dataDxfId="15"/>
+    <tableColumn id="2" name="Product" dataDxfId="14"/>
+    <tableColumn id="3" name="Units Sold" dataDxfId="13"/>
+    <tableColumn id="4" name="Revenue" dataDxfId="12"/>
+    <tableColumn id="5" name="Cost" dataDxfId="11"/>
+    <tableColumn id="6" name="Profit" dataDxfId="10"/>
+    <tableColumn id="7" name="Date" dataDxfId="9"/>
+    <tableColumn id="8" name="Month" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11794,7 +11844,7 @@
   <dimension ref="I1:I4"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11826,7 +11876,7 @@
   <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="C22:E22"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11958,7 +12008,7 @@
   <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12091,7 +12141,7 @@
   <dimension ref="A3:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12307,7 +12357,7 @@
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12390,8 +12440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I702"/>
   <sheetViews>
-    <sheetView topLeftCell="A681" workbookViewId="0">
-      <selection activeCell="G177" sqref="G177:G207"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E181" sqref="E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excel Interactive Dashboard.xlsx
+++ b/Excel Interactive Dashboard.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="24240" windowHeight="13515" tabRatio="895"/>
   </bookViews>
@@ -1159,12 +1159,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="95277824"/>
-        <c:axId val="95279360"/>
+        <c:axId val="79745792"/>
+        <c:axId val="79747328"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="95277824"/>
+        <c:axId val="79745792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,7 +1173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95279360"/>
+        <c:crossAx val="79747328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1181,7 +1181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95279360"/>
+        <c:axId val="79747328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,7 +1192,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95277824"/>
+        <c:crossAx val="79745792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1416,11 +1416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95312512"/>
-        <c:axId val="95326592"/>
+        <c:axId val="80108160"/>
+        <c:axId val="80122240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95312512"/>
+        <c:axId val="80108160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,7 +1429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95326592"/>
+        <c:crossAx val="80122240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1437,7 +1437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95326592"/>
+        <c:axId val="80122240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95312512"/>
+        <c:crossAx val="80108160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1492,52 +1492,7 @@
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Product Wise Unit Sold</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -1607,7 +1562,9 @@
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout/>
-          <c:spPr/>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
           <c:txPr>
             <a:bodyPr/>
             <a:lstStyle/>
@@ -1630,9 +1587,22 @@
           <c:showBubbleSize val="0"/>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12183267716535433"/>
+          <c:y val="5.7371717089326507E-2"/>
+          <c:w val="0.47118044619422572"/>
+          <c:h val="0.86987194422448788"/>
+        </c:manualLayout>
+      </c:layout>
       <c:doughnutChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -1650,7 +1620,9 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:spPr/>
+            <c:spPr>
+              <a:noFill/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1732,7 +1704,7 @@
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -1742,8 +1714,27 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72873468941382324"/>
+          <c:y val="8.0512449227720259E-2"/>
+          <c:w val="0.25459864391951004"/>
+          <c:h val="0.87487214814138836"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1953,11 +1944,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="63004672"/>
-        <c:axId val="63006208"/>
+        <c:axId val="80240640"/>
+        <c:axId val="80242176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63004672"/>
+        <c:axId val="80240640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1966,7 +1957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63006208"/>
+        <c:crossAx val="80242176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1974,7 +1965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63006208"/>
+        <c:axId val="80242176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1985,7 +1976,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63004672"/>
+        <c:crossAx val="80240640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2183,11 +2174,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="63069568"/>
-        <c:axId val="63095936"/>
+        <c:axId val="79325056"/>
+        <c:axId val="79326592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63069568"/>
+        <c:axId val="79325056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2196,7 +2187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63095936"/>
+        <c:crossAx val="79326592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2204,7 +2195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63095936"/>
+        <c:axId val="79326592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,7 +2206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63069568"/>
+        <c:crossAx val="79325056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2415,11 +2406,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="63166336"/>
-        <c:axId val="63167872"/>
+        <c:axId val="79419264"/>
+        <c:axId val="79420800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63166336"/>
+        <c:axId val="79419264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,7 +2419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63167872"/>
+        <c:crossAx val="79420800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2436,7 +2427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63167872"/>
+        <c:axId val="79420800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2447,7 +2438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63166336"/>
+        <c:crossAx val="79419264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2961,12 +2952,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="63339904"/>
-        <c:axId val="63349888"/>
+        <c:axId val="86736256"/>
+        <c:axId val="86746240"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63339904"/>
+        <c:axId val="86736256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2975,7 +2966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63349888"/>
+        <c:crossAx val="86746240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2983,7 +2974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63349888"/>
+        <c:axId val="86746240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2994,7 +2985,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63339904"/>
+        <c:crossAx val="86736256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11365,7 +11356,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0">
@@ -11437,7 +11428,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="4">
+  <chartFormats count="5">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -11470,6 +11461,18 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -11844,7 +11847,7 @@
   <dimension ref="I1:I4"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12441,7 +12444,7 @@
   <dimension ref="A1:I702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E181" sqref="E181"/>
+      <selection activeCell="I177" sqref="I177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
